--- a/team_results/tappara/xlsx_tappara_2_upcoming_games_data.xlsx
+++ b/team_results/tappara/xlsx_tappara_2_upcoming_games_data.xlsx
@@ -562,7 +562,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>416</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>417</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
         <v>423</v>

--- a/team_results/tappara/xlsx_tappara_2_upcoming_games_data.xlsx
+++ b/team_results/tappara/xlsx_tappara_2_upcoming_games_data.xlsx
@@ -592,7 +592,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>417</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>423</v>
